--- a/Data_source/test1.xlsx
+++ b/Data_source/test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\OneDrive\Documents\Dissertation\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\OneDrive\Documents\Dissertation\Final\Data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A4A7F4-C9E6-48F6-8DAE-72A0C9DAA3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF743183-322A-4D49-BB05-4C7AC8537A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA117D18-0A50-4B92-9292-F72F665891C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="85">
   <si>
     <t>F</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Rent</t>
   </si>
   <si>
-    <t>7/24/2016</t>
-  </si>
-  <si>
     <t>Sunday</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>black</t>
   </si>
   <si>
-    <t>7/19/2015</t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
@@ -96,27 +90,18 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>6/23/2015</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
     <t>red</t>
   </si>
   <si>
-    <t>4/14/2015</t>
-  </si>
-  <si>
     <t>Online</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
-    <t>3/31/2015</t>
-  </si>
-  <si>
     <t>claim_number</t>
   </si>
   <si>
@@ -187,6 +172,123 @@
   </si>
   <si>
     <t>vehicle_weight</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>5/16/2016</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>5/29/2015</t>
+  </si>
+  <si>
+    <t>3/19/2015</t>
+  </si>
+  <si>
+    <t>4/17/2015</t>
+  </si>
+  <si>
+    <t>1/25/2015</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>3/13/2015</t>
+  </si>
+  <si>
+    <t>8/25/2015</t>
+  </si>
+  <si>
+    <t>5/21/2015</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>2/25/2015</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>6/13/2016</t>
+  </si>
+  <si>
+    <t>3/15/2016</t>
+  </si>
+  <si>
+    <t>5/26/2015</t>
+  </si>
+  <si>
+    <t>5/31/2016</t>
+  </si>
+  <si>
+    <t>1/30/2015</t>
+  </si>
+  <si>
+    <t>5/27/2015</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>5/16/2015</t>
+  </si>
+  <si>
+    <t>5/30/2016</t>
+  </si>
+  <si>
+    <t>8/31/2016</t>
+  </si>
+  <si>
+    <t>6/30/2015</t>
+  </si>
+  <si>
+    <t>3/23/2016</t>
+  </si>
+  <si>
+    <t>9/27/2015</t>
+  </si>
+  <si>
+    <t>7/15/2016</t>
+  </si>
+  <si>
+    <t>5/14/2016</t>
+  </si>
+  <si>
+    <t>6/15/2016</t>
+  </si>
+  <si>
+    <t>4/16/2015</t>
+  </si>
+  <si>
+    <t>2/26/2015</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>2/24/2015</t>
   </si>
 </sst>
 </file>
@@ -539,106 +641,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D78C840-0F0A-432F-B0B2-AD3376883F26}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection sqref="A1:X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>45</v>
-      </c>
-      <c r="T1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>29987</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>41741</v>
+        <v>36633</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -647,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>20134</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
+        <v>50048</v>
+      </c>
+      <c r="K2" s="1">
+        <v>42712</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -668,335 +770,335 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3382.4126000000001</v>
+        <v>5196.5525520000001</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V2">
-        <v>57417.739269999998</v>
+        <v>24360.59273</v>
       </c>
       <c r="W2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="X2">
-        <v>26718.211039999998</v>
+        <v>26633.278190000001</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>29989</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>40252</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-      <c r="F3">
-        <v>36621</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
       <c r="J3">
-        <v>15021</v>
-      </c>
-      <c r="K3" t="s">
+        <v>85068</v>
+      </c>
+      <c r="K3" s="1">
+        <v>42036</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>4935.4885130000002</v>
+        <v>7381.1652480000002</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V3">
-        <v>29264.612669999999</v>
+        <v>39710.426650000001</v>
       </c>
       <c r="W3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X3">
-        <v>9424.7869350000001</v>
+        <v>15875.348739999999</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>29990</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>41566</v>
+        <v>36634</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>20142</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
+        <v>20115</v>
+      </c>
+      <c r="K4" s="1">
+        <v>42705</v>
       </c>
       <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="Q4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>7475.901535</v>
+        <v>5612.1239379999997</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="V4">
-        <v>20231.72363</v>
+        <v>50327.566180000002</v>
       </c>
       <c r="W4" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="X4">
-        <v>27015.879809999999</v>
+        <v>21365.05932</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>29992</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5">
-        <v>35256</v>
+        <v>34960</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>20109</v>
-      </c>
-      <c r="K5" s="1">
-        <v>42188</v>
+        <v>50006</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="Q5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3838.9516450000001</v>
+        <v>7957.2676410000004</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V5">
-        <v>21900.031920000001</v>
+        <v>23457.35282</v>
       </c>
       <c r="W5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X5">
-        <v>16122.919540000001</v>
+        <v>26707.460210000001</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>29994</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>38072</v>
+        <v>31776</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>15044</v>
-      </c>
-      <c r="K6" t="s">
+        <v>20122</v>
+      </c>
+      <c r="K6" s="1">
+        <v>42469</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>94</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>5</v>
-      </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>5236.5642740000003</v>
+        <v>6232.1959319999996</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V6">
-        <v>8291.8583460000009</v>
+        <v>18238.392019999999</v>
       </c>
       <c r="W6" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="X6">
-        <v>26825.84418</v>
+        <v>22949.737440000001</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>29995</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -1005,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F7">
-        <v>33322</v>
+        <v>37140</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1017,126 +1119,3012 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>85067</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
+        <v>80020</v>
+      </c>
+      <c r="K7" s="1">
+        <v>42070</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>3885.3954359999998</v>
+        <v>4149.1316909999996</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V7">
-        <v>16168.298849999999</v>
+        <v>35593.057930000003</v>
       </c>
       <c r="W7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="X7">
-        <v>14855.540069999999</v>
+        <v>22791.123889999999</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>29998</v>
+        <v>22</v>
       </c>
       <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>38276</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>15034</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>9548.9823049999995</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8">
+        <v>76187.876069999998</v>
+      </c>
+      <c r="W8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8">
+        <v>24623.890370000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>85</v>
+      </c>
+      <c r="F9">
+        <v>41749</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>15017</v>
+      </c>
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>4028.56376</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>22348.52925</v>
+      </c>
+      <c r="W9" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9">
+        <v>26707.283810000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>39116</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>15001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>3839.648925</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>21349.877530000002</v>
+      </c>
+      <c r="W10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X10">
+        <v>31878.79291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>36911</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="J11">
+        <v>50023</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>6970.6782720000001</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+      <c r="U11" t="s">
+        <v>15</v>
+      </c>
+      <c r="V11">
+        <v>21257.360130000001</v>
+      </c>
+      <c r="W11" t="s">
+        <v>47</v>
+      </c>
+      <c r="X11">
+        <v>18161.714540000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>94</v>
+      </c>
+      <c r="F12">
+        <v>40956</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>20120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>7017.6531269999996</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V12">
+        <v>15212.282289999999</v>
+      </c>
+      <c r="W12" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12">
+        <v>39237.763859999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <v>38273</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>50054</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>5219.4726280000004</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <v>22364.223699999999</v>
+      </c>
+      <c r="W13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13">
+        <v>41521.517879999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>42612</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>80023</v>
+      </c>
+      <c r="K14" s="1">
+        <v>42014</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>7887.1144480000003</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14">
+        <v>13976.466969999999</v>
+      </c>
+      <c r="W14" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14">
+        <v>14716.84093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>39695</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>20151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>6695.3737719999999</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="U15" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>8241.0070240000005</v>
+      </c>
+      <c r="W15" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15">
+        <v>18457.041720000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>36898</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>20130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>6452.8689979999999</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16" t="s">
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <v>42355.025029999997</v>
+      </c>
+      <c r="W16" t="s">
+        <v>16</v>
+      </c>
+      <c r="X16">
+        <v>17501.04046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <v>32200</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>50037</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>6928.3545489999997</v>
+      </c>
+      <c r="T17">
+        <v>10</v>
+      </c>
+      <c r="U17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>24877.835709999999</v>
+      </c>
+      <c r="W17" t="s">
+        <v>57</v>
+      </c>
+      <c r="X17">
+        <v>7352.7122810000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>34338</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>15021</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>3014.1108840000002</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18">
+        <v>19752.425230000001</v>
+      </c>
+      <c r="W18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <v>15279.385829999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>93</v>
+      </c>
+      <c r="F19">
+        <v>39704</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>85027</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>5671.5990250000004</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19">
+        <v>32910.342239999998</v>
+      </c>
+      <c r="W19" t="s">
+        <v>19</v>
+      </c>
+      <c r="X19">
+        <v>20909.277719999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>84</v>
+      </c>
+      <c r="F20">
+        <v>34966</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>85071</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>6535.2748920000004</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="U20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20">
+        <v>20296.577130000001</v>
+      </c>
+      <c r="W20" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20">
+        <v>19166.48272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>87</v>
+      </c>
+      <c r="F21">
+        <v>51918</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>20101</v>
+      </c>
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>2678.2529570000002</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21">
+        <v>9223.3881970000002</v>
+      </c>
+      <c r="W21" t="s">
+        <v>13</v>
+      </c>
+      <c r="X21">
+        <v>26935.007249999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>87</v>
+      </c>
+      <c r="F22">
+        <v>37127</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>80046</v>
+      </c>
+      <c r="K22" s="1">
+        <v>42103</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>25</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4064.569489</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22">
+        <v>28570.376749999999</v>
+      </c>
+      <c r="W22" t="s">
+        <v>19</v>
+      </c>
+      <c r="X22">
+        <v>34493.97997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>55</v>
+      </c>
+      <c r="F23">
+        <v>38913</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>15056</v>
+      </c>
+      <c r="K23" t="s">
         <v>66</v>
       </c>
-      <c r="F8">
-        <v>39318</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>61</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>2184.112243</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23">
+        <v>10120.912329999999</v>
+      </c>
+      <c r="W23" t="s">
+        <v>57</v>
+      </c>
+      <c r="X23">
+        <v>13369.7485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>68</v>
+      </c>
+      <c r="F24">
+        <v>37362</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>80042</v>
+      </c>
+      <c r="K24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>84</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>2812.3652649999999</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24">
+        <v>12689.88429</v>
+      </c>
+      <c r="W24" t="s">
+        <v>57</v>
+      </c>
+      <c r="X24">
+        <v>6535.9676719999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>62</v>
+      </c>
+      <c r="B25">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>36381</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>15060</v>
+      </c>
+      <c r="K25" t="s">
         <v>9</v>
       </c>
-      <c r="J8">
-        <v>80013</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="L25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>94</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>2563.0601179999999</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25">
+        <v>16694.763040000002</v>
+      </c>
+      <c r="W25" t="s">
+        <v>13</v>
+      </c>
+      <c r="X25">
+        <v>16236.01181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>95</v>
+      </c>
+      <c r="F26">
+        <v>34344</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>80104</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>49</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>3603.9092030000002</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="U26" t="s">
+        <v>15</v>
+      </c>
+      <c r="V26">
+        <v>18410.050739999999</v>
+      </c>
+      <c r="W26" t="s">
+        <v>57</v>
+      </c>
+      <c r="X26">
+        <v>26911.829659999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <v>36383</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>80040</v>
+      </c>
+      <c r="K27" s="1">
+        <v>42498</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>49</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>5105.65146</v>
+      </c>
+      <c r="T27">
+        <v>8</v>
+      </c>
+      <c r="U27" t="s">
+        <v>15</v>
+      </c>
+      <c r="V27">
+        <v>17741.734550000001</v>
+      </c>
+      <c r="W27" t="s">
+        <v>16</v>
+      </c>
+      <c r="X27">
+        <v>16003.73842</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>47</v>
+      </c>
+      <c r="F28">
+        <v>37382</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>85035</v>
+      </c>
+      <c r="K28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>27</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>4742.0425999999998</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="U28" t="s">
+        <v>15</v>
+      </c>
+      <c r="V28">
+        <v>21724.117429999998</v>
+      </c>
+      <c r="W28" t="s">
+        <v>57</v>
+      </c>
+      <c r="X28">
+        <v>27731.366170000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <v>38279</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>85076</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>61</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>3177.6290330000002</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="U29" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29">
+        <v>21739.198909999999</v>
+      </c>
+      <c r="W29" t="s">
         <v>21</v>
       </c>
-      <c r="M8" t="s">
+      <c r="X29">
+        <v>33341.342499999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>90</v>
+      </c>
+      <c r="F30">
+        <v>34336</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>80021</v>
+      </c>
+      <c r="K30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>74</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>4131.6296679999996</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30" t="s">
+        <v>15</v>
+      </c>
+      <c r="V30">
+        <v>27551.631710000001</v>
+      </c>
+      <c r="W30" t="s">
+        <v>57</v>
+      </c>
+      <c r="X30">
+        <v>22598.568729999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>82</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>89</v>
+      </c>
+      <c r="F31">
+        <v>39132</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>20151</v>
+      </c>
+      <c r="K31" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="s">
         <v>11</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>98</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>5712.282494</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="U31" t="s">
+        <v>15</v>
+      </c>
+      <c r="V31">
+        <v>53451.421009999998</v>
+      </c>
+      <c r="W31" t="s">
+        <v>47</v>
+      </c>
+      <c r="X31">
+        <v>7131.3772010000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>84</v>
+      </c>
+      <c r="B32">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>87</v>
+      </c>
+      <c r="F32">
+        <v>37841</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>85082</v>
+      </c>
+      <c r="K32" s="1">
+        <v>42381</v>
+      </c>
+      <c r="L32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>17</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>5479.3936130000002</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32" t="s">
         <v>12</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>5455.1972210000004</v>
-      </c>
-      <c r="T8">
+      <c r="V32">
+        <v>44607.846740000001</v>
+      </c>
+      <c r="W32" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32">
+        <v>26288.765459999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>86</v>
+      </c>
+      <c r="B33">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="U8" t="s">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>83</v>
+      </c>
+      <c r="F33">
+        <v>41123</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>80108</v>
+      </c>
+      <c r="K33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>3195.0345080000002</v>
+      </c>
+      <c r="T33">
+        <v>7</v>
+      </c>
+      <c r="U33" t="s">
+        <v>15</v>
+      </c>
+      <c r="V33">
+        <v>27009.68072</v>
+      </c>
+      <c r="W33" t="s">
+        <v>19</v>
+      </c>
+      <c r="X33">
+        <v>6771.5075459999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>87</v>
+      </c>
+      <c r="B34">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>68</v>
+      </c>
+      <c r="F34">
+        <v>37371</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <v>80015</v>
+      </c>
+      <c r="K34" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>77</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>9218.5824499999999</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34" t="s">
+        <v>15</v>
+      </c>
+      <c r="V34">
+        <v>17740.69947</v>
+      </c>
+      <c r="W34" t="s">
+        <v>13</v>
+      </c>
+      <c r="X34">
+        <v>28271.743190000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>88</v>
+      </c>
+      <c r="B35">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>87</v>
+      </c>
+      <c r="F35">
+        <v>40076</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>85033</v>
+      </c>
+      <c r="K35" t="s">
+        <v>75</v>
+      </c>
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>82</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>5054.2881690000004</v>
+      </c>
+      <c r="T35">
         <v>6</v>
       </c>
-      <c r="V8">
-        <v>27934.105250000001</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="U35" t="s">
+        <v>15</v>
+      </c>
+      <c r="V35">
+        <v>17123.780360000001</v>
+      </c>
+      <c r="W35" t="s">
+        <v>47</v>
+      </c>
+      <c r="X35">
+        <v>22054.95189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <v>35554</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>15001</v>
+      </c>
+      <c r="K36" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>50</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>6170.326094</v>
+      </c>
+      <c r="T36">
+        <v>6</v>
+      </c>
+      <c r="U36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V36">
+        <v>60839.935550000002</v>
+      </c>
+      <c r="W36" t="s">
+        <v>19</v>
+      </c>
+      <c r="X36">
+        <v>19198.006659999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>101</v>
+      </c>
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>74</v>
+      </c>
+      <c r="F37">
+        <v>35250</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>15025</v>
+      </c>
+      <c r="K37" s="1">
+        <v>42252</v>
+      </c>
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>3483.6073390000001</v>
+      </c>
+      <c r="T37">
+        <v>7</v>
+      </c>
+      <c r="U37" t="s">
+        <v>15</v>
+      </c>
+      <c r="V37">
+        <v>8302.9511939999993</v>
+      </c>
+      <c r="W37" t="s">
+        <v>57</v>
+      </c>
+      <c r="X37">
+        <v>16277.49503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>103</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>79</v>
+      </c>
+      <c r="F38">
+        <v>34012</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>50041</v>
+      </c>
+      <c r="K38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>61</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>3973.6947850000001</v>
+      </c>
+      <c r="T38">
+        <v>7</v>
+      </c>
+      <c r="U38" t="s">
+        <v>12</v>
+      </c>
+      <c r="V38">
+        <v>28091.431919999999</v>
+      </c>
+      <c r="W38" t="s">
+        <v>47</v>
+      </c>
+      <c r="X38">
+        <v>15488.98712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>105</v>
+      </c>
+      <c r="B39">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>87</v>
+      </c>
+      <c r="F39">
+        <v>39324</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>50050</v>
+      </c>
+      <c r="K39" s="1">
+        <v>42047</v>
+      </c>
+      <c r="L39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>58</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>4</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>4462.1193300000004</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+      <c r="U39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V39">
+        <v>34778.37081</v>
+      </c>
+      <c r="W39" t="s">
+        <v>19</v>
+      </c>
+      <c r="X39">
+        <v>12400.612950000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>106</v>
+      </c>
+      <c r="B40">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>57</v>
+      </c>
+      <c r="F40">
+        <v>38905</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>80015</v>
+      </c>
+      <c r="K40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>18</v>
       </c>
-      <c r="X8">
-        <v>27565.428049999999</v>
+      <c r="Q40" t="s">
+        <v>11</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>4264.3955649999998</v>
+      </c>
+      <c r="T40">
+        <v>10</v>
+      </c>
+      <c r="U40" t="s">
+        <v>15</v>
+      </c>
+      <c r="V40">
+        <v>23264.32531</v>
+      </c>
+      <c r="W40" t="s">
+        <v>21</v>
+      </c>
+      <c r="X40">
+        <v>33770.800349999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>107</v>
+      </c>
+      <c r="B41">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>69</v>
+      </c>
+      <c r="F41">
+        <v>37391</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>20138</v>
+      </c>
+      <c r="K41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>22</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>2672.1157020000001</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>12</v>
+      </c>
+      <c r="V41">
+        <v>39995.508399999999</v>
+      </c>
+      <c r="W41" t="s">
+        <v>6</v>
+      </c>
+      <c r="X41">
+        <v>14213.3989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>112</v>
+      </c>
+      <c r="B42">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>58</v>
+      </c>
+      <c r="F42">
+        <v>42488</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>20158</v>
+      </c>
+      <c r="K42" s="1">
+        <v>42166</v>
+      </c>
+      <c r="L42" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>50</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>11</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>2417.9229970000001</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="U42" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42">
+        <v>29214.5357</v>
+      </c>
+      <c r="W42" t="s">
+        <v>13</v>
+      </c>
+      <c r="X42">
+        <v>19172.689279999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>113</v>
+      </c>
+      <c r="B43">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>49</v>
+      </c>
+      <c r="F43">
+        <v>33317</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>15057</v>
+      </c>
+      <c r="K43" t="s">
+        <v>80</v>
+      </c>
+      <c r="L43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>50</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>11</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>3456.6791579999999</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+      <c r="U43" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43">
+        <v>23876.174360000001</v>
+      </c>
+      <c r="W43" t="s">
+        <v>47</v>
+      </c>
+      <c r="X43">
+        <v>32074.03469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>117</v>
+      </c>
+      <c r="B44">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>67</v>
+      </c>
+      <c r="F44">
+        <v>40089</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>85003</v>
+      </c>
+      <c r="K44" t="s">
+        <v>81</v>
+      </c>
+      <c r="L44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>56</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>3631.7182010000001</v>
+      </c>
+      <c r="T44">
+        <v>5</v>
+      </c>
+      <c r="U44" t="s">
+        <v>15</v>
+      </c>
+      <c r="V44">
+        <v>56915.461969999997</v>
+      </c>
+      <c r="W44" t="s">
+        <v>13</v>
+      </c>
+      <c r="X44">
+        <v>21946.947080000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>118</v>
+      </c>
+      <c r="B45">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>78</v>
+      </c>
+      <c r="F45">
+        <v>36374</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>20140</v>
+      </c>
+      <c r="K45" t="s">
+        <v>82</v>
+      </c>
+      <c r="L45" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>50</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>11</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>7204.6673549999996</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V45">
+        <v>17991.213510000001</v>
+      </c>
+      <c r="W45" t="s">
+        <v>6</v>
+      </c>
+      <c r="X45">
+        <v>12246.51763</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>122</v>
+      </c>
+      <c r="B46">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>84</v>
+      </c>
+      <c r="F46">
+        <v>37143</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>20111</v>
+      </c>
+      <c r="K46" t="s">
+        <v>83</v>
+      </c>
+      <c r="L46" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>38</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>6203.3902049999997</v>
+      </c>
+      <c r="T46">
+        <v>4</v>
+      </c>
+      <c r="U46" t="s">
+        <v>12</v>
+      </c>
+      <c r="V46">
+        <v>11938.689270000001</v>
+      </c>
+      <c r="W46" t="s">
+        <v>57</v>
+      </c>
+      <c r="X46">
+        <v>23161.212749999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>123</v>
+      </c>
+      <c r="B47">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>67</v>
+      </c>
+      <c r="F47">
+        <v>40062</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>20151</v>
+      </c>
+      <c r="K47" t="s">
+        <v>84</v>
+      </c>
+      <c r="L47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>49</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>5039.4645280000004</v>
+      </c>
+      <c r="T47">
+        <v>8</v>
+      </c>
+      <c r="U47" t="s">
+        <v>15</v>
+      </c>
+      <c r="V47">
+        <v>14345.7639</v>
+      </c>
+      <c r="W47" t="s">
+        <v>21</v>
+      </c>
+      <c r="X47">
+        <v>25296.445319999999</v>
       </c>
     </row>
   </sheetData>
